--- a/medicine/Enfance/Madame_Piquedru_la_blanchisseuse/Madame_Piquedru_la_blanchisseuse.xlsx
+++ b/medicine/Enfance/Madame_Piquedru_la_blanchisseuse/Madame_Piquedru_la_blanchisseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Madame Piquedru la blanchisseuse ou Poupette-à-l'épingle (titre original en anglais : The Tale of Mrs Tiggy-Twinkle) est un livre pour enfants écrit et illustré par Beatrix Potter paru en 1905 chez Frederick Warne &amp; Co.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une petite fille de la campagne, Lucie, perd toujours ses mouchoirs (en tissu) et part à leur recherche ; cette quête sert de fil conducteur à l'histoire et au questionnement répété des premières scènes : "Avez-vous vu mes mouchoirs ?"
 Lorsqu'elle quitte le monde protégé de la ferme et franchit l'échalier pour aller rejoindre les nuages en forme de mouchoirs, Lucie entraîne le lecteur à sa suite dans un monde mystérieux mais semé d'indices, comme la boite en fer blanc qui recueille l'eau de la source.
@@ -545,7 +559,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette histoire est racontée du point de vue d'une petite fille dont le babil incessant fait penser aux jeux de faire semblant.
 Les images représentent clairement un hérisson. Mais Madame Piquedru est habillée de haut en bas comme une blanchisseuse, elle s'active comme une ouvrière prudente et pressée, ne perdant pas de temps et soucieuse de la satisfaction de sa clientèle aussi le lecteur se laisse-t-il emporter par la fantasy de l'ambiance professionnelle de cette blanchisserie.  
@@ -584,7 +600,9 @@
           <t>Rééditions et traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rééditions en langue anglaise
 Rééditions en anglais
